--- a/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.621843908323854</v>
+        <v>2.659216408532814</v>
       </c>
       <c r="C2">
-        <v>0.4492509463609906</v>
+        <v>0.4912413198530601</v>
       </c>
       <c r="D2">
-        <v>0.05984853054101791</v>
+        <v>0.05313609308040412</v>
       </c>
       <c r="E2">
-        <v>0.03920313560816879</v>
+        <v>0.04535718814374767</v>
       </c>
       <c r="F2">
-        <v>2.2317307181264</v>
+        <v>0.5558501707677621</v>
       </c>
       <c r="G2">
-        <v>0.0008100852836824839</v>
+        <v>0.0007987597116709543</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1484098054634799</v>
+        <v>0.1491787388642365</v>
       </c>
       <c r="M2">
-        <v>0.4333050099937736</v>
+        <v>0.4360376097092029</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.824817250820374</v>
+        <v>1.635055225024161</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272264877177179</v>
+        <v>2.310673617832492</v>
       </c>
       <c r="C3">
-        <v>0.3968879812942703</v>
+        <v>0.4511759808239049</v>
       </c>
       <c r="D3">
-        <v>0.06131389517640429</v>
+        <v>0.04887915332358972</v>
       </c>
       <c r="E3">
-        <v>0.03942637540954386</v>
+        <v>0.04773578263672418</v>
       </c>
       <c r="F3">
-        <v>2.032489715191304</v>
+        <v>0.5242669244533928</v>
       </c>
       <c r="G3">
-        <v>0.000818378343316703</v>
+        <v>0.0008033643397036214</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1345127365948429</v>
+        <v>0.1352481232101681</v>
       </c>
       <c r="M3">
-        <v>0.3777921364465442</v>
+        <v>0.3796855118183444</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.673608620469579</v>
+        <v>1.582448055481507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060851354912529</v>
+        <v>2.097239200030515</v>
       </c>
       <c r="C4">
-        <v>0.3649522419548816</v>
+        <v>0.4266076320962782</v>
       </c>
       <c r="D4">
-        <v>0.06227908896424239</v>
+        <v>0.0462663714773015</v>
       </c>
       <c r="E4">
-        <v>0.03957470169460697</v>
+        <v>0.04927250476503986</v>
       </c>
       <c r="F4">
-        <v>1.91449790529829</v>
+        <v>0.5063555597754785</v>
       </c>
       <c r="G4">
-        <v>0.0008236072158146597</v>
+        <v>0.0008062829795607482</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.12621363092547</v>
+        <v>0.1268662503236087</v>
       </c>
       <c r="M4">
-        <v>0.3442908924585666</v>
+        <v>0.3452475433646924</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.584347759730903</v>
+        <v>1.555119781915323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975403497411321</v>
+        <v>2.010369571458625</v>
       </c>
       <c r="C5">
-        <v>0.3519773842830034</v>
+        <v>0.4166006589662175</v>
       </c>
       <c r="D5">
-        <v>0.0626879142586354</v>
+        <v>0.04520157960083537</v>
       </c>
       <c r="E5">
-        <v>0.03963785200110614</v>
+        <v>0.04991761106033976</v>
       </c>
       <c r="F5">
-        <v>1.867402323301093</v>
+        <v>0.4994069084742208</v>
       </c>
       <c r="G5">
-        <v>0.0008257739924128657</v>
+        <v>0.0008074958063953862</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1228851622556917</v>
+        <v>0.1234906633392754</v>
       </c>
       <c r="M5">
-        <v>0.3307679921113547</v>
+        <v>0.3312477895867048</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.548789170370057</v>
+        <v>1.545164966927103</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961254553195772</v>
+        <v>1.995950332924451</v>
       </c>
       <c r="C6">
-        <v>0.3498248760439822</v>
+        <v>0.4149392115465105</v>
       </c>
       <c r="D6">
-        <v>0.06275670928115318</v>
+        <v>0.04502475933681183</v>
       </c>
       <c r="E6">
-        <v>0.03964849811991777</v>
+        <v>0.05002586234978224</v>
       </c>
       <c r="F6">
-        <v>1.859638838617528</v>
+        <v>0.4982736305182129</v>
       </c>
       <c r="G6">
-        <v>0.0008261359994896984</v>
+        <v>0.000807698625892768</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1223355560401345</v>
+        <v>0.12293248531752</v>
       </c>
       <c r="M6">
-        <v>0.3285298341341019</v>
+        <v>0.3289250024553283</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.542931623502668</v>
+        <v>1.543581406499328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059696256431323</v>
+        <v>2.096067261601036</v>
       </c>
       <c r="C7">
-        <v>0.3647771184823512</v>
+        <v>0.4264726590564578</v>
       </c>
       <c r="D7">
-        <v>0.06228454096319425</v>
+        <v>0.04625201196714102</v>
       </c>
       <c r="E7">
-        <v>0.03957554255928775</v>
+        <v>0.04928112883215874</v>
       </c>
       <c r="F7">
-        <v>1.913858894111371</v>
+        <v>0.5062604574167295</v>
       </c>
       <c r="G7">
-        <v>0.0008236362901522094</v>
+        <v>0.0008062992404980484</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1261685321692738</v>
+        <v>0.1268205675454936</v>
       </c>
       <c r="M7">
-        <v>0.3441080173864322</v>
+        <v>0.3450586088762506</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.583865007587278</v>
+        <v>1.554980831439309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.500571304340156</v>
+        <v>2.538896785063002</v>
       </c>
       <c r="C8">
-        <v>0.4311420760217857</v>
+        <v>0.4774181470419876</v>
       </c>
       <c r="D8">
-        <v>0.06033959804866029</v>
+        <v>0.05166789583485354</v>
       </c>
       <c r="E8">
-        <v>0.0392776933733523</v>
+        <v>0.04616131920829314</v>
       </c>
       <c r="F8">
-        <v>2.162065081014788</v>
+        <v>0.544639294982936</v>
       </c>
       <c r="G8">
-        <v>0.0008129172847862742</v>
+        <v>0.0008003287179438644</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1435662556156316</v>
+        <v>0.1443379566509932</v>
       </c>
       <c r="M8">
-        <v>0.4140318516971604</v>
+        <v>0.4165694160737559</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.771883881775594</v>
+        <v>1.615841628386505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.396132959352883</v>
+        <v>3.413673201582469</v>
       </c>
       <c r="C9">
-        <v>0.5637472111850741</v>
+        <v>0.5777376978103916</v>
       </c>
       <c r="D9">
-        <v>0.05709325991654168</v>
+        <v>0.06231232767724748</v>
       </c>
       <c r="E9">
-        <v>0.03878931616974191</v>
+        <v>0.04066225824639436</v>
       </c>
       <c r="F9">
-        <v>2.68849150308472</v>
+        <v>0.6327068410211325</v>
       </c>
       <c r="G9">
-        <v>0.0007929069218008582</v>
+        <v>0.0007893225500221955</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1798021038043558</v>
+        <v>0.1801991102637928</v>
       </c>
       <c r="M9">
-        <v>0.5566724877145788</v>
+        <v>0.5584287798827461</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.173233255897188</v>
+        <v>1.77794578378203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.081444551593052</v>
+        <v>4.063095936116099</v>
       </c>
       <c r="C10">
-        <v>0.6638675388765591</v>
+        <v>0.6519488264139</v>
       </c>
       <c r="D10">
-        <v>0.05513093756410825</v>
+        <v>0.07017252749003688</v>
       </c>
       <c r="E10">
-        <v>0.03849921440375126</v>
+        <v>0.03701942020039639</v>
       </c>
       <c r="F10">
-        <v>3.107613291869598</v>
+        <v>0.7067904247553543</v>
       </c>
       <c r="G10">
-        <v>0.0007787018633606754</v>
+        <v>0.0007816299962900264</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2081280683208178</v>
+        <v>0.2076893055669302</v>
       </c>
       <c r="M10">
-        <v>0.666225041519013</v>
+        <v>0.6641595880628941</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.494590100955506</v>
+        <v>1.928020003790806</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.401322983874195</v>
+        <v>4.360685368178963</v>
       </c>
       <c r="C11">
-        <v>0.7103111110142208</v>
+        <v>0.6858818537788807</v>
       </c>
       <c r="D11">
-        <v>0.05435038108965529</v>
+        <v>0.0737632389094145</v>
       </c>
       <c r="E11">
-        <v>0.03838498964679404</v>
+        <v>0.03545321394300638</v>
       </c>
       <c r="F11">
-        <v>3.307403779013697</v>
+        <v>0.7429083724241394</v>
       </c>
       <c r="G11">
-        <v>0.0007723171442458722</v>
+        <v>0.0007782077742874317</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2214895540952995</v>
+        <v>0.2204972347024921</v>
       </c>
       <c r="M11">
-        <v>0.7174531951755867</v>
+        <v>0.7127116737034669</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.648227183083932</v>
+        <v>2.004202453098344</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.523829872596309</v>
+        <v>4.473747503766901</v>
       </c>
       <c r="C12">
-        <v>0.728057372948598</v>
+        <v>0.6987620176504379</v>
       </c>
       <c r="D12">
-        <v>0.05407295224327058</v>
+        <v>0.07512567840026207</v>
       </c>
       <c r="E12">
-        <v>0.03834457546657322</v>
+        <v>0.03487364148355399</v>
       </c>
       <c r="F12">
-        <v>3.384573338937912</v>
+        <v>0.7569671111178167</v>
       </c>
       <c r="G12">
-        <v>0.0007699076419559292</v>
+        <v>0.0007769222403591948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2266276884158884</v>
+        <v>0.2253955850673037</v>
       </c>
       <c r="M12">
-        <v>0.7370863977759612</v>
+        <v>0.731173649757686</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.707639586998624</v>
+        <v>2.034296094456352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.497381033595161</v>
+        <v>4.449380012468737</v>
       </c>
       <c r="C13">
-        <v>0.7242278007944662</v>
+        <v>0.6959865971194006</v>
       </c>
       <c r="D13">
-        <v>0.05413185855172742</v>
+        <v>0.07483212262424388</v>
       </c>
       <c r="E13">
-        <v>0.03835314792283073</v>
+        <v>0.03499785434909519</v>
       </c>
       <c r="F13">
-        <v>3.367882716888488</v>
+        <v>0.7539217634530644</v>
       </c>
       <c r="G13">
-        <v>0.0007704262537325144</v>
+        <v>0.0007771986529592559</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2255174380438518</v>
+        <v>0.2243384110303737</v>
       </c>
       <c r="M13">
-        <v>0.7328470296513174</v>
+        <v>0.7271939521744031</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.694786396953347</v>
+        <v>2.027757718727543</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.411372839594037</v>
+        <v>4.369979249242817</v>
       </c>
       <c r="C14">
-        <v>0.7117677319481572</v>
+        <v>0.6869408691637773</v>
       </c>
       <c r="D14">
-        <v>0.05432718033831208</v>
+        <v>0.07387526988254933</v>
       </c>
       <c r="E14">
-        <v>0.03838160599193774</v>
+        <v>0.03540525866846078</v>
       </c>
       <c r="F14">
-        <v>3.313720995706831</v>
+        <v>0.7440571392395015</v>
       </c>
       <c r="G14">
-        <v>0.000772118765342005</v>
+        <v>0.0007781018087038133</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2219106377988993</v>
+        <v>0.2208992289500173</v>
       </c>
       <c r="M14">
-        <v>0.7190635257391875</v>
+        <v>0.7142289551120768</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.653089353986999</v>
+        <v>2.0066526785495</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.358876134280763</v>
+        <v>4.321394244499913</v>
       </c>
       <c r="C15">
-        <v>0.704157257223585</v>
+        <v>0.681404236653691</v>
       </c>
       <c r="D15">
-        <v>0.054449249902774</v>
+        <v>0.0732895407066394</v>
       </c>
       <c r="E15">
-        <v>0.03839941668673741</v>
+        <v>0.03565657928167798</v>
       </c>
       <c r="F15">
-        <v>3.280748840917653</v>
+        <v>0.7380655337687614</v>
       </c>
       <c r="G15">
-        <v>0.0007731564613509854</v>
+        <v>0.0007786563485443105</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2197119009198474</v>
+        <v>0.2187990642192972</v>
       </c>
       <c r="M15">
-        <v>0.7106523188239606</v>
+        <v>0.7062978054132003</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.627714506246008</v>
+        <v>1.993890696466082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.060720382285865</v>
+        <v>4.043696348977051</v>
       </c>
       <c r="C16">
-        <v>0.6608528827413807</v>
+        <v>0.6497351787559467</v>
       </c>
       <c r="D16">
-        <v>0.05518437132484166</v>
+        <v>0.06993821492383745</v>
       </c>
       <c r="E16">
-        <v>0.03850705988715575</v>
+        <v>0.03712364223616371</v>
       </c>
       <c r="F16">
-        <v>3.094756774812367</v>
+        <v>0.7044815208047197</v>
       </c>
       <c r="G16">
-        <v>0.0007791204379567261</v>
+        <v>0.0007818551398583546</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2072652659609275</v>
+        <v>0.2068587632054601</v>
       </c>
       <c r="M16">
-        <v>0.6629079840667558</v>
+        <v>0.6609966610941385</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.484712851642826</v>
+        <v>1.923209492203398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.880032123366277</v>
+        <v>3.873933218722584</v>
       </c>
       <c r="C17">
-        <v>0.6345371536641835</v>
+        <v>0.6303555242858465</v>
       </c>
       <c r="D17">
-        <v>0.05566540952297316</v>
+        <v>0.06788651792916767</v>
       </c>
       <c r="E17">
-        <v>0.03857783059841413</v>
+        <v>0.03804723258303766</v>
       </c>
       <c r="F17">
-        <v>2.983129680042993</v>
+        <v>0.6845212784787691</v>
       </c>
       <c r="G17">
-        <v>0.0007827970052254147</v>
+        <v>0.0007838367694206415</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1997582688088784</v>
+        <v>0.1996145265096629</v>
       </c>
       <c r="M17">
-        <v>0.6339978036273308</v>
+        <v>0.6333298430591228</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.399003002176045</v>
+        <v>1.881949101860158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.776856053863128</v>
+        <v>3.77648971578094</v>
       </c>
       <c r="C18">
-        <v>0.6194835813689679</v>
+        <v>0.6192248844109258</v>
       </c>
       <c r="D18">
-        <v>0.05595250455705525</v>
+        <v>0.06670781839424222</v>
       </c>
       <c r="E18">
-        <v>0.0386201862689084</v>
+        <v>0.03858698896244628</v>
       </c>
       <c r="F18">
-        <v>2.919770661472114</v>
+        <v>0.6732659743532707</v>
       </c>
       <c r="G18">
-        <v>0.0007849191295692393</v>
+        <v>0.0007849838583292927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.195484565168087</v>
+        <v>0.1954759989764199</v>
       </c>
       <c r="M18">
-        <v>0.6174981896455094</v>
+        <v>0.617458701164928</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.35039536347675</v>
+        <v>1.858955114810698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.742045516492624</v>
+        <v>3.743529572848843</v>
       </c>
       <c r="C19">
-        <v>0.6144000309531634</v>
+        <v>0.6154588354333441</v>
       </c>
       <c r="D19">
-        <v>0.05605144176838195</v>
+        <v>0.06630895253916691</v>
       </c>
       <c r="E19">
-        <v>0.03863480258218899</v>
+        <v>0.03877119361999093</v>
       </c>
       <c r="F19">
-        <v>2.898457983640895</v>
+        <v>0.6694928217384444</v>
       </c>
       <c r="G19">
-        <v>0.0007856390068405164</v>
+        <v>0.000785373518777718</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.194044855940362</v>
+        <v>0.1940794630551324</v>
       </c>
       <c r="M19">
-        <v>0.6119328513896178</v>
+        <v>0.6120919126190572</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.334051626756064</v>
+        <v>1.851293355289727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.899187551357045</v>
+        <v>3.891983698542788</v>
       </c>
       <c r="C20">
-        <v>0.637329761829676</v>
+        <v>0.6324168252293134</v>
       </c>
       <c r="D20">
-        <v>0.05561311058519181</v>
+        <v>0.06810477770791579</v>
       </c>
       <c r="E20">
-        <v>0.0385701242065315</v>
+        <v>0.03794802873650371</v>
       </c>
       <c r="F20">
-        <v>2.994923654176688</v>
+        <v>0.6866225243036155</v>
       </c>
       <c r="G20">
-        <v>0.0007824048757784087</v>
+        <v>0.0007836250701609063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2005527664735638</v>
+        <v>0.2003827394962912</v>
       </c>
       <c r="M20">
-        <v>0.6370617832273808</v>
+        <v>0.6362705912848128</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.408054400819069</v>
+        <v>1.886264222538358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.436596401762245</v>
+        <v>4.393290589918138</v>
       </c>
       <c r="C21">
-        <v>0.7154229792689932</v>
+        <v>0.6895969461628795</v>
       </c>
       <c r="D21">
-        <v>0.05426929925238611</v>
+        <v>0.0741562424072626</v>
       </c>
       <c r="E21">
-        <v>0.03837316753254894</v>
+        <v>0.03528522367993481</v>
       </c>
       <c r="F21">
-        <v>3.329586809051222</v>
+        <v>0.7469439750293816</v>
       </c>
       <c r="G21">
-        <v>0.0007716214342820182</v>
+        <v>0.0007778362539613622</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2229678278305443</v>
+        <v>0.2219080502844264</v>
       </c>
       <c r="M21">
-        <v>0.7231054250600195</v>
+        <v>0.7180349246478883</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.665301914747616</v>
+        <v>2.012817054149679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.795960664370114</v>
+        <v>4.723120656698654</v>
       </c>
       <c r="C22">
-        <v>0.7674057594265378</v>
+        <v>0.727147909603957</v>
       </c>
       <c r="D22">
-        <v>0.05349801779143704</v>
+        <v>0.07812734319351478</v>
       </c>
       <c r="E22">
-        <v>0.03826117241665683</v>
+        <v>0.03362393325784818</v>
       </c>
       <c r="F22">
-        <v>3.557241720966005</v>
+        <v>0.7886099661088082</v>
       </c>
       <c r="G22">
-        <v>0.00076462033197556</v>
+        <v>0.0007741131048106462</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2380801181079306</v>
+        <v>0.2362599088212249</v>
       </c>
       <c r="M22">
-        <v>0.7807242496037503</v>
+        <v>0.7719234752101727</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.840708452504913</v>
+        <v>2.102839646424712</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.603340810442319</v>
+        <v>4.546861813270539</v>
       </c>
       <c r="C23">
-        <v>0.7395641455498776</v>
+        <v>0.7070878138566457</v>
       </c>
       <c r="D23">
-        <v>0.05389912153475862</v>
+        <v>0.07600622177061211</v>
       </c>
       <c r="E23">
-        <v>0.03831930671601658</v>
+        <v>0.03450321309293969</v>
       </c>
       <c r="F23">
-        <v>3.43484729961628</v>
+        <v>0.7661548612116462</v>
       </c>
       <c r="G23">
-        <v>0.0007683537387069254</v>
+        <v>0.000776094961533903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2299684134008118</v>
+        <v>0.2285724050541091</v>
       </c>
       <c r="M23">
-        <v>0.7498328840035882</v>
+        <v>0.7431170162108813</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.746365201936726</v>
+        <v>2.054086028400405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.890525204811638</v>
+        <v>3.883822596510754</v>
       </c>
       <c r="C24">
-        <v>0.6360669901221456</v>
+        <v>0.6314848772724986</v>
       </c>
       <c r="D24">
-        <v>0.05563672225525096</v>
+        <v>0.06800609986012773</v>
       </c>
       <c r="E24">
-        <v>0.03857360308987134</v>
+        <v>0.03799285150560072</v>
       </c>
       <c r="F24">
-        <v>2.989589068861733</v>
+        <v>0.6856718680333813</v>
       </c>
       <c r="G24">
-        <v>0.0007825821312247371</v>
+        <v>0.0007837207549712642</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2001934434714343</v>
+        <v>0.2000353489024036</v>
       </c>
       <c r="M24">
-        <v>0.6356761829471509</v>
+        <v>0.6349409711866016</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.403960194496477</v>
+        <v>1.884311099530606</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.14972664824279</v>
+        <v>3.176060224261505</v>
       </c>
       <c r="C25">
-        <v>0.5274957083376819</v>
+        <v>0.5505293109352749</v>
       </c>
       <c r="D25">
-        <v>0.05790340294435126</v>
+        <v>0.0594277101106826</v>
       </c>
       <c r="E25">
-        <v>0.03891021360458469</v>
+        <v>0.04208165155629873</v>
       </c>
       <c r="F25">
-        <v>2.541042061505308</v>
+        <v>0.6073555228159435</v>
       </c>
       <c r="G25">
-        <v>0.0007982236945026596</v>
+        <v>0.0007922282641113769</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1697326950042708</v>
+        <v>0.1703140785106001</v>
       </c>
       <c r="M25">
-        <v>0.5173594235092764</v>
+        <v>0.519827107046531</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.060527266652556</v>
+        <v>1.729029323631465</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.659216408532814</v>
+        <v>2.660273357054564</v>
       </c>
       <c r="C2">
-        <v>0.4912413198530601</v>
+        <v>0.6106229370735718</v>
       </c>
       <c r="D2">
-        <v>0.05313609308040412</v>
+        <v>0.07749932456185604</v>
       </c>
       <c r="E2">
-        <v>0.04535718814374767</v>
+        <v>0.05233951653065061</v>
       </c>
       <c r="F2">
-        <v>0.5558501707677621</v>
+        <v>0.3312709943463474</v>
       </c>
       <c r="G2">
-        <v>0.0007987597116709543</v>
+        <v>0.2268666756979059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004927654674329318</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2176000553402346</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2059526009917771</v>
       </c>
       <c r="L2">
-        <v>0.1491787388642365</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4360376097092029</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1519538013226764</v>
       </c>
       <c r="O2">
-        <v>1.635055225024161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4393475734714656</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8859250402277326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.310673617832492</v>
+        <v>2.318902513808553</v>
       </c>
       <c r="C3">
-        <v>0.4511759808239049</v>
+        <v>0.5605790718643107</v>
       </c>
       <c r="D3">
-        <v>0.04887915332358972</v>
+        <v>0.06865051390251864</v>
       </c>
       <c r="E3">
-        <v>0.04773578263672418</v>
+        <v>0.05474788364085548</v>
       </c>
       <c r="F3">
-        <v>0.5242669244533928</v>
+        <v>0.3144884756434152</v>
       </c>
       <c r="G3">
-        <v>0.0008033643397036214</v>
+        <v>0.2186487871848755</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004620000248953815</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2190743216261239</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2175059322371222</v>
       </c>
       <c r="L3">
-        <v>0.1352481232101681</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3796855118183444</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.137859747960043</v>
       </c>
       <c r="O3">
-        <v>1.582448055481507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3830011284080825</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8712642714027652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.097239200030515</v>
+        <v>2.108971191553962</v>
       </c>
       <c r="C4">
-        <v>0.4266076320962782</v>
+        <v>0.5300799513523486</v>
       </c>
       <c r="D4">
-        <v>0.0462663714773015</v>
+        <v>0.06322895634576042</v>
       </c>
       <c r="E4">
-        <v>0.04927250476503986</v>
+        <v>0.05630116225819104</v>
       </c>
       <c r="F4">
-        <v>0.5063555597754785</v>
+        <v>0.3047667672223398</v>
       </c>
       <c r="G4">
-        <v>0.0008062829795607482</v>
+        <v>0.2141196229462921</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006652890238458831</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2203327641485799</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2250743892149014</v>
       </c>
       <c r="L4">
-        <v>0.1268662503236087</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3452475433646924</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1294063105749004</v>
       </c>
       <c r="O4">
-        <v>1.555119781915323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3484135571157978</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8640887637999128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.010369571458625</v>
+        <v>2.023275374057334</v>
       </c>
       <c r="C5">
-        <v>0.4166006589662175</v>
+        <v>0.518456156539969</v>
       </c>
       <c r="D5">
-        <v>0.04520157960083537</v>
+        <v>0.06108792923820516</v>
       </c>
       <c r="E5">
-        <v>0.04991761106033976</v>
+        <v>0.05694429878201113</v>
       </c>
       <c r="F5">
-        <v>0.4994069084742208</v>
+        <v>0.3005836801608837</v>
       </c>
       <c r="G5">
-        <v>0.0008074958063953862</v>
+        <v>0.2120558570358924</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0008692221456043647</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2207513062858837</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.228058468160004</v>
       </c>
       <c r="L5">
-        <v>0.1234906633392754</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3312477895867048</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1260705100593924</v>
       </c>
       <c r="O5">
-        <v>1.545164966927103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3343554640215984</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8605025124473542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.995950332924451</v>
+        <v>2.008976139422032</v>
       </c>
       <c r="C6">
-        <v>0.4149392115465105</v>
+        <v>0.5174521981051043</v>
       </c>
       <c r="D6">
-        <v>0.04502475933681183</v>
+        <v>0.0608134057336045</v>
       </c>
       <c r="E6">
-        <v>0.05002586234978224</v>
+        <v>0.05704218732055544</v>
       </c>
       <c r="F6">
-        <v>0.4982736305182129</v>
+        <v>0.2994566179000486</v>
       </c>
       <c r="G6">
-        <v>0.000807698625892768</v>
+        <v>0.2113036657975655</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0009970016659082148</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2206058325099036</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2282981935761654</v>
       </c>
       <c r="L6">
-        <v>0.12293248531752</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3289250024553283</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1255945465048072</v>
       </c>
       <c r="O6">
-        <v>1.543581406499328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3320663963597923</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8585883670544234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.096067261601036</v>
+        <v>2.107641518544995</v>
       </c>
       <c r="C7">
-        <v>0.4264726590564578</v>
+        <v>0.5324543410351907</v>
       </c>
       <c r="D7">
-        <v>0.04625201196714102</v>
+        <v>0.06342166781939795</v>
       </c>
       <c r="E7">
-        <v>0.04928112883215874</v>
+        <v>0.05628325112713128</v>
       </c>
       <c r="F7">
-        <v>0.5062604574167295</v>
+        <v>0.303506200971583</v>
       </c>
       <c r="G7">
-        <v>0.0008062992404980484</v>
+        <v>0.2129531926328525</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009000587274643479</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2197380479342641</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2243998350566248</v>
       </c>
       <c r="L7">
-        <v>0.1268205675454936</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3450586088762506</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.129566570454017</v>
       </c>
       <c r="O7">
-        <v>1.554980831439309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.348347776657782</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8603688937649707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.538896785063002</v>
+        <v>2.542392837957266</v>
       </c>
       <c r="C8">
-        <v>0.4774181470419876</v>
+        <v>0.5967184270517976</v>
       </c>
       <c r="D8">
-        <v>0.05166789583485354</v>
+        <v>0.07474210756590338</v>
       </c>
       <c r="E8">
-        <v>0.04616131920829314</v>
+        <v>0.05312313180218509</v>
       </c>
       <c r="F8">
-        <v>0.544639294982936</v>
+        <v>0.3237674137985636</v>
       </c>
       <c r="G8">
-        <v>0.0008003287179438644</v>
+        <v>0.2224186326267059</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000710167945132234</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2172446902423744</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2089071936837392</v>
       </c>
       <c r="L8">
-        <v>0.1443379566509932</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4165694160737559</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1473239440975078</v>
       </c>
       <c r="O8">
-        <v>1.615841628386505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4200789453213858</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8756400059161109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413673201582469</v>
+        <v>3.393320505699137</v>
       </c>
       <c r="C9">
-        <v>0.5777376978103916</v>
+        <v>0.7201610840242267</v>
       </c>
       <c r="D9">
-        <v>0.06231232767724748</v>
+        <v>0.09666091503700613</v>
       </c>
       <c r="E9">
-        <v>0.04066225824639436</v>
+        <v>0.04757063266701145</v>
       </c>
       <c r="F9">
-        <v>0.6327068410211325</v>
+        <v>0.3706355115793087</v>
       </c>
       <c r="G9">
-        <v>0.0007893225500221955</v>
+        <v>0.2474426340446598</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001898999808934931</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2163658273296534</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1837245901492075</v>
       </c>
       <c r="L9">
-        <v>0.1801991102637928</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5584287798827461</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1834944283842788</v>
       </c>
       <c r="O9">
-        <v>1.77794578378203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5607391311526015</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9276168424825499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.063095936116099</v>
+        <v>4.018280396388604</v>
       </c>
       <c r="C10">
-        <v>0.6519488264139</v>
+        <v>0.8137717015544297</v>
       </c>
       <c r="D10">
-        <v>0.07017252749003688</v>
+        <v>0.1129980517330722</v>
       </c>
       <c r="E10">
-        <v>0.03701942020039639</v>
+        <v>0.04386928684155078</v>
       </c>
       <c r="F10">
-        <v>0.7067904247553543</v>
+        <v>0.4080407197932558</v>
       </c>
       <c r="G10">
-        <v>0.0007816299962900264</v>
+        <v>0.2684541570136645</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004258903315288443</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2174362917502322</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1675670259950071</v>
       </c>
       <c r="L10">
-        <v>0.2076893055669302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6641595880628941</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2114084213649079</v>
       </c>
       <c r="O10">
-        <v>1.928020003790806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6644953567166496</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9749249431823444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.360685368178963</v>
+        <v>4.30250751652369</v>
       </c>
       <c r="C11">
-        <v>0.6858818537788807</v>
+        <v>0.8611951108382527</v>
       </c>
       <c r="D11">
-        <v>0.0737632389094145</v>
+        <v>0.1208461973486976</v>
       </c>
       <c r="E11">
-        <v>0.03545321394300638</v>
+        <v>0.04224958268969181</v>
       </c>
       <c r="F11">
-        <v>0.7429083724241394</v>
+        <v>0.4239993582405575</v>
       </c>
       <c r="G11">
-        <v>0.0007782077742874317</v>
+        <v>0.2769811816136141</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006032461777580878</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2174569166995681</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1597887067994588</v>
       </c>
       <c r="L11">
-        <v>0.2204972347024921</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7127116737034669</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2247621384063905</v>
       </c>
       <c r="O11">
-        <v>2.004202453098344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7120257070199187</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9932745253930904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473747503766901</v>
+        <v>4.410359134647706</v>
       </c>
       <c r="C12">
-        <v>0.6987620176504379</v>
+        <v>0.8768973187746099</v>
       </c>
       <c r="D12">
-        <v>0.07512567840026207</v>
+        <v>0.123623629426362</v>
       </c>
       <c r="E12">
-        <v>0.03487364148355399</v>
+        <v>0.04166327105945444</v>
       </c>
       <c r="F12">
-        <v>0.7569671111178167</v>
+        <v>0.4312232460584866</v>
       </c>
       <c r="G12">
-        <v>0.0007769222403591948</v>
+        <v>0.2813145740411258</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006573029523169183</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2180468612128053</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1575176464889179</v>
       </c>
       <c r="L12">
-        <v>0.2253955850673037</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.731173649757686</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2296861150121998</v>
       </c>
       <c r="O12">
-        <v>2.034296094456352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7299414629629979</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.0037821299656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.449380012468737</v>
+        <v>4.387162053877603</v>
       </c>
       <c r="C13">
-        <v>0.6959865971194006</v>
+        <v>0.8730414209435082</v>
       </c>
       <c r="D13">
-        <v>0.07483212262424388</v>
+        <v>0.1229846186976857</v>
       </c>
       <c r="E13">
-        <v>0.03499785434909519</v>
+        <v>0.04179156750351742</v>
       </c>
       <c r="F13">
-        <v>0.7539217634530644</v>
+        <v>0.4298701602446826</v>
       </c>
       <c r="G13">
-        <v>0.0007771986529592559</v>
+        <v>0.2805719470980748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006414192292060861</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2180182648298796</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1581169791595372</v>
       </c>
       <c r="L13">
-        <v>0.2243384110303737</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7271939521744031</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.228586800515572</v>
       </c>
       <c r="O13">
-        <v>2.027757718727543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.726060534875117</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.00212950568789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.369979249242817</v>
+        <v>4.311393489536954</v>
       </c>
       <c r="C14">
-        <v>0.6869408691637773</v>
+        <v>0.8622855999314538</v>
       </c>
       <c r="D14">
-        <v>0.07387526988254933</v>
+        <v>0.1210573535555994</v>
       </c>
       <c r="E14">
-        <v>0.03540525866846078</v>
+        <v>0.04220220401971619</v>
       </c>
       <c r="F14">
-        <v>0.7440571392395015</v>
+        <v>0.424679635087287</v>
       </c>
       <c r="G14">
-        <v>0.0007781018087038133</v>
+        <v>0.2774185509473028</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00605853343709839</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2175472169262704</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1596486330072473</v>
       </c>
       <c r="L14">
-        <v>0.2208992289500173</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7142289551120768</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2251506853028644</v>
       </c>
       <c r="O14">
-        <v>2.0066526785495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.713490082016186</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9943978850129724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.321394244499913</v>
+        <v>4.264925374372922</v>
       </c>
       <c r="C15">
-        <v>0.681404236653691</v>
+        <v>0.8566329088311306</v>
       </c>
       <c r="D15">
-        <v>0.0732895407066394</v>
+        <v>0.1199574444401179</v>
       </c>
       <c r="E15">
-        <v>0.03565657928167798</v>
+        <v>0.04245021019930117</v>
       </c>
       <c r="F15">
-        <v>0.7380655337687614</v>
+        <v>0.4211071798272954</v>
       </c>
       <c r="G15">
-        <v>0.0007786563485443105</v>
+        <v>0.2751170505516995</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005930936664389819</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2170678485918174</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1603736925813717</v>
       </c>
       <c r="L15">
-        <v>0.2187990642192972</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7062978054132003</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2231245142057361</v>
       </c>
       <c r="O15">
-        <v>1.993890696466082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7058355686868225</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9884780005263707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.043696348977051</v>
+        <v>3.99916260077481</v>
       </c>
       <c r="C16">
-        <v>0.6497351787559467</v>
+        <v>0.8184452746968418</v>
       </c>
       <c r="D16">
-        <v>0.06993821492383745</v>
+        <v>0.1131557650971757</v>
       </c>
       <c r="E16">
-        <v>0.03712364223616371</v>
+        <v>0.04393001080654668</v>
       </c>
       <c r="F16">
-        <v>0.7044815208047197</v>
+        <v>0.4035426167854652</v>
       </c>
       <c r="G16">
-        <v>0.0007818551398583546</v>
+        <v>0.2646478369476384</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004798985694637103</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2157488553390863</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1661649487988033</v>
       </c>
       <c r="L16">
-        <v>0.2068587632054601</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6609966610941385</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2111487065359938</v>
       </c>
       <c r="O16">
-        <v>1.923209492203398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6617471688527203</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.963307068902779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873933218722584</v>
+        <v>3.836206030144751</v>
       </c>
       <c r="C17">
-        <v>0.6303555242858465</v>
+        <v>0.7950961449957958</v>
       </c>
       <c r="D17">
-        <v>0.06788651792916767</v>
+        <v>0.108989954949223</v>
       </c>
       <c r="E17">
-        <v>0.03804723258303766</v>
+        <v>0.04486051114884959</v>
       </c>
       <c r="F17">
-        <v>0.6845212784787691</v>
+        <v>0.3930202246660812</v>
       </c>
       <c r="G17">
-        <v>0.0007838367694206415</v>
+        <v>0.2584529754932774</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004203963275194234</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.21507400452046</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1698935750174417</v>
       </c>
       <c r="L17">
-        <v>0.1996145265096629</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6333298430591228</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2038820161324537</v>
       </c>
       <c r="O17">
-        <v>1.881949101860158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6347356898372993</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.948627171036577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.77648971578094</v>
+        <v>3.74266476371281</v>
       </c>
       <c r="C18">
-        <v>0.6192248844109258</v>
+        <v>0.7793435001875082</v>
       </c>
       <c r="D18">
-        <v>0.06670781839424222</v>
+        <v>0.1063936056143291</v>
       </c>
       <c r="E18">
-        <v>0.03858698896244628</v>
+        <v>0.04541837498966905</v>
       </c>
       <c r="F18">
-        <v>0.6732659743532707</v>
+        <v>0.3881078013361901</v>
       </c>
       <c r="G18">
-        <v>0.0007849838583292927</v>
+        <v>0.2559571612675811</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003661248806909434</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2152473036775078</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1726824589686302</v>
       </c>
       <c r="L18">
-        <v>0.1954759989764199</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.617458701164928</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1995470738754648</v>
       </c>
       <c r="O18">
-        <v>1.858955114810698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6191031912683584</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9436212309063592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.743529572848843</v>
+        <v>3.710869850869926</v>
       </c>
       <c r="C19">
-        <v>0.6154588354333441</v>
+        <v>0.7758263328959742</v>
       </c>
       <c r="D19">
-        <v>0.06630895253916691</v>
+        <v>0.105671116517172</v>
       </c>
       <c r="E19">
-        <v>0.03877119361999093</v>
+        <v>0.04559751027984582</v>
       </c>
       <c r="F19">
-        <v>0.6694928217384444</v>
+        <v>0.3856491911273849</v>
       </c>
       <c r="G19">
-        <v>0.000785373518777718</v>
+        <v>0.2543641373310308</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003661613113687956</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2149179042452687</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1731885932234274</v>
       </c>
       <c r="L19">
-        <v>0.1940794630551324</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6120919126190572</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1982256787755006</v>
       </c>
       <c r="O19">
-        <v>1.851293355289727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6138953132162754</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9395278114361503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.891983698542788</v>
+        <v>3.853563451740683</v>
       </c>
       <c r="C20">
-        <v>0.6324168252293134</v>
+        <v>0.7973940577764154</v>
       </c>
       <c r="D20">
-        <v>0.06810477770791579</v>
+        <v>0.1094172512025153</v>
       </c>
       <c r="E20">
-        <v>0.03794802873650371</v>
+        <v>0.04476170788683487</v>
       </c>
       <c r="F20">
-        <v>0.6866225243036155</v>
+        <v>0.3942134257835264</v>
       </c>
       <c r="G20">
-        <v>0.0007836250701609063</v>
+        <v>0.2591814381546556</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004244941159621263</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2151811061197577</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1695355767630371</v>
       </c>
       <c r="L20">
-        <v>0.2003827394962912</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6362705912848128</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2046381982892029</v>
       </c>
       <c r="O20">
-        <v>1.886264222538358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6376014179489715</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9504100938936801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.393290589918138</v>
+        <v>4.333459264152225</v>
       </c>
       <c r="C21">
-        <v>0.6895969461628795</v>
+        <v>0.8680863286394072</v>
       </c>
       <c r="D21">
-        <v>0.0741562424072626</v>
+        <v>0.1218507818620793</v>
       </c>
       <c r="E21">
-        <v>0.03528522367993481</v>
+        <v>0.0420666820007477</v>
       </c>
       <c r="F21">
-        <v>0.7469439750293816</v>
+        <v>0.4250280594162987</v>
       </c>
       <c r="G21">
-        <v>0.0007778362539613622</v>
+        <v>0.2772405021505833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006397803325816298</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2171126428737651</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1585540174781794</v>
       </c>
       <c r="L21">
-        <v>0.2219080502844264</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7180349246478883</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2263640218147742</v>
       </c>
       <c r="O21">
-        <v>2.012817054149679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7173014440434358</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9931282085495354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.723120656698654</v>
+        <v>4.647685581650535</v>
       </c>
       <c r="C22">
-        <v>0.727147909603957</v>
+        <v>0.9112070657111531</v>
       </c>
       <c r="D22">
-        <v>0.07812734319351478</v>
+        <v>0.1297131364411968</v>
       </c>
       <c r="E22">
-        <v>0.03362393325784818</v>
+        <v>0.0403994550501755</v>
       </c>
       <c r="F22">
-        <v>0.7886099661088082</v>
+        <v>0.4475287830497194</v>
       </c>
       <c r="G22">
-        <v>0.0007741131048106462</v>
+        <v>0.2912278391162886</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007841643094682382</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2195579067267062</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1527902362331357</v>
       </c>
       <c r="L22">
-        <v>0.2362599088212249</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7719234752101727</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2405792500351964</v>
       </c>
       <c r="O22">
-        <v>2.102839646424712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7693710880388949</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.028148105899135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.546861813270539</v>
+        <v>4.480165019548963</v>
       </c>
       <c r="C23">
-        <v>0.7070878138566457</v>
+        <v>0.884979422829332</v>
       </c>
       <c r="D23">
-        <v>0.07600622177061211</v>
+        <v>0.125239974050146</v>
       </c>
       <c r="E23">
-        <v>0.03450321309293969</v>
+        <v>0.04129971029469548</v>
       </c>
       <c r="F23">
-        <v>0.7661548612116462</v>
+        <v>0.4368495630507923</v>
       </c>
       <c r="G23">
-        <v>0.000776094961533903</v>
+        <v>0.2850145899498528</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.006771301075588099</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2188974666667249</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1565841956285485</v>
       </c>
       <c r="L23">
-        <v>0.2285724050541091</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7431170162108813</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2327181120542008</v>
       </c>
       <c r="O23">
-        <v>2.054086028400405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7414226431600497</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.013462069818701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.883822596510754</v>
+        <v>3.846065595627294</v>
       </c>
       <c r="C24">
-        <v>0.6314848772724986</v>
+        <v>0.791383888865056</v>
       </c>
       <c r="D24">
-        <v>0.06800609986012773</v>
+        <v>0.1087952864549209</v>
       </c>
       <c r="E24">
-        <v>0.03799285150560072</v>
+        <v>0.0448368758493134</v>
       </c>
       <c r="F24">
-        <v>0.6856718680333813</v>
+        <v>0.3958986738300254</v>
       </c>
       <c r="G24">
-        <v>0.0007837207549712642</v>
+        <v>0.260943136214884</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003768892457680195</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.216219854342377</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1709301018667748</v>
       </c>
       <c r="L24">
-        <v>0.2000353489024036</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6349409711866016</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.203907738482215</v>
       </c>
       <c r="O24">
-        <v>1.884311099530606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6360778858315399</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9563135223178563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.176060224261505</v>
+        <v>3.162893513721315</v>
       </c>
       <c r="C25">
-        <v>0.5505293109352749</v>
+        <v>0.6912588392877979</v>
       </c>
       <c r="D25">
-        <v>0.0594277101106826</v>
+        <v>0.09112528408675757</v>
       </c>
       <c r="E25">
-        <v>0.04208165155629873</v>
+        <v>0.0489707752023838</v>
       </c>
       <c r="F25">
-        <v>0.6073555228159435</v>
+        <v>0.3552014985386549</v>
       </c>
       <c r="G25">
-        <v>0.0007922282641113769</v>
+        <v>0.2381068544301925</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001743119600129184</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2152007827267965</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1888561159254039</v>
       </c>
       <c r="L25">
-        <v>0.1703140785106001</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.519827107046531</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1738819438070678</v>
       </c>
       <c r="O25">
-        <v>1.729029323631465</v>
+        <v>0.5228640523698118</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9051850899568308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.660273357054564</v>
+        <v>2.663791936565417</v>
       </c>
       <c r="C2">
-        <v>0.6106229370735718</v>
+        <v>0.6133044144455084</v>
       </c>
       <c r="D2">
-        <v>0.07749932456185604</v>
+        <v>0.07911846956982771</v>
       </c>
       <c r="E2">
-        <v>0.05233951653065061</v>
+        <v>0.0500762411235911</v>
       </c>
       <c r="F2">
-        <v>0.3312709943463474</v>
+        <v>0.3207931409084566</v>
       </c>
       <c r="G2">
-        <v>0.2268666756979059</v>
+        <v>0.1998282959888371</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004927654674329318</v>
+        <v>0.0006692845253590818</v>
       </c>
       <c r="J2">
-        <v>0.2176000553402346</v>
+        <v>0.2514565924887364</v>
       </c>
       <c r="K2">
-        <v>0.2059526009917771</v>
+        <v>0.1946247078638361</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1143080066814743</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04201391717987413</v>
       </c>
       <c r="N2">
-        <v>0.1519538013226764</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4393475734714656</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.154525015148586</v>
       </c>
       <c r="Q2">
-        <v>0.8859250402277326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4407290617147339</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8526771565164069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.318902513808553</v>
+        <v>2.323609568089239</v>
       </c>
       <c r="C3">
-        <v>0.5605790718643107</v>
+        <v>0.5552403749608743</v>
       </c>
       <c r="D3">
-        <v>0.06865051390251864</v>
+        <v>0.06959610845582631</v>
       </c>
       <c r="E3">
-        <v>0.05474788364085548</v>
+        <v>0.05231532416281526</v>
       </c>
       <c r="F3">
-        <v>0.3144884756434152</v>
+        <v>0.3059323610935323</v>
       </c>
       <c r="G3">
-        <v>0.2186487871848755</v>
+        <v>0.193180046003377</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004620000248953815</v>
+        <v>0.0005049566442498765</v>
       </c>
       <c r="J3">
-        <v>0.2190743216261239</v>
+        <v>0.2518163813288439</v>
       </c>
       <c r="K3">
-        <v>0.2175059322371222</v>
+        <v>0.205935152340512</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1204780315815555</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04539304869334337</v>
       </c>
       <c r="N3">
-        <v>0.137859747960043</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3830011284080825</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1400978139021802</v>
       </c>
       <c r="Q3">
-        <v>0.8712642714027652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3840868508101778</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.842630955450332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.108971191553962</v>
+        <v>2.114305194199858</v>
       </c>
       <c r="C4">
-        <v>0.5300799513523486</v>
+        <v>0.5199704869066579</v>
       </c>
       <c r="D4">
-        <v>0.06322895634576042</v>
+        <v>0.06377374833630256</v>
       </c>
       <c r="E4">
-        <v>0.05630116225819104</v>
+        <v>0.05376279154397401</v>
       </c>
       <c r="F4">
-        <v>0.3047667672223398</v>
+        <v>0.2972651234385069</v>
       </c>
       <c r="G4">
-        <v>0.2141196229462921</v>
+        <v>0.1895941902582052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006652890238458831</v>
+        <v>0.0005884805701854567</v>
       </c>
       <c r="J4">
-        <v>0.2203327641485799</v>
+        <v>0.2521966531285074</v>
       </c>
       <c r="K4">
-        <v>0.2250743892149014</v>
+        <v>0.2132670181040588</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.124521700915567</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04801448367747341</v>
       </c>
       <c r="N4">
-        <v>0.1294063105749004</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3484135571157978</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1314567389990273</v>
       </c>
       <c r="Q4">
-        <v>0.8640887637999128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3493010383595845</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8378881601857984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.023275374057334</v>
+        <v>2.028841703170997</v>
       </c>
       <c r="C5">
-        <v>0.518456156539969</v>
+        <v>0.5064426717090953</v>
       </c>
       <c r="D5">
-        <v>0.06108792923820516</v>
+        <v>0.06147175737460486</v>
       </c>
       <c r="E5">
-        <v>0.05694429878201113</v>
+        <v>0.05436370682575176</v>
       </c>
       <c r="F5">
-        <v>0.3005836801608837</v>
+        <v>0.2934921722189543</v>
       </c>
       <c r="G5">
-        <v>0.2120558570358924</v>
+        <v>0.1879255587273363</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008692221456043647</v>
+        <v>0.0007470428995350886</v>
       </c>
       <c r="J5">
-        <v>0.2207513062858837</v>
+        <v>0.252208677064452</v>
       </c>
       <c r="K5">
-        <v>0.228058468160004</v>
+        <v>0.2161463897470526</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1261086467626544</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04918892118228557</v>
       </c>
       <c r="N5">
-        <v>0.1260705100593924</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3343554640215984</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.128047677349393</v>
       </c>
       <c r="Q5">
-        <v>0.8605025124473542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3351577315166594</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8352333065647599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.008976139422032</v>
+        <v>2.014579531754805</v>
       </c>
       <c r="C6">
-        <v>0.5174521981051043</v>
+        <v>0.5051269791874518</v>
       </c>
       <c r="D6">
-        <v>0.0608134057336045</v>
+        <v>0.06116967266253681</v>
       </c>
       <c r="E6">
-        <v>0.05704218732055544</v>
+        <v>0.05445621921754329</v>
       </c>
       <c r="F6">
-        <v>0.2994566179000486</v>
+        <v>0.2924448946105116</v>
       </c>
       <c r="G6">
-        <v>0.2113036657975655</v>
+        <v>0.187258829273226</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0009970016659082148</v>
+        <v>0.0008834032225726318</v>
       </c>
       <c r="J6">
-        <v>0.2206058325099036</v>
+        <v>0.2519909557806841</v>
       </c>
       <c r="K6">
-        <v>0.2282981935761654</v>
+        <v>0.2163835911398522</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1262245935423039</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04935609907505656</v>
       </c>
       <c r="N6">
-        <v>0.1255945465048072</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3320663963597923</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1275584816831028</v>
       </c>
       <c r="Q6">
-        <v>0.8585883670544234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.332853335018136</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8335143721089793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.107641518544995</v>
+        <v>2.112957756213405</v>
       </c>
       <c r="C7">
-        <v>0.5324543410351907</v>
+        <v>0.5219475939167069</v>
       </c>
       <c r="D7">
-        <v>0.06342166781939795</v>
+        <v>0.06409681220009134</v>
       </c>
       <c r="E7">
-        <v>0.05628325112713128</v>
+        <v>0.05374220168363963</v>
       </c>
       <c r="F7">
-        <v>0.303506200971583</v>
+        <v>0.2953640421018733</v>
       </c>
       <c r="G7">
-        <v>0.2129531926328525</v>
+        <v>0.1905724603422385</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0009000587274643479</v>
+        <v>0.0008664354833678445</v>
       </c>
       <c r="J7">
-        <v>0.2197380479342641</v>
+        <v>0.2483560908353368</v>
       </c>
       <c r="K7">
-        <v>0.2243998350566248</v>
+        <v>0.212414978148848</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1240111452254737</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04788357580476621</v>
       </c>
       <c r="N7">
-        <v>0.129566570454017</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.348347776657782</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1315876981867774</v>
       </c>
       <c r="Q7">
-        <v>0.8603688937649707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.34921393780877</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8322618117613985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.542392837957266</v>
+        <v>2.546273521803016</v>
       </c>
       <c r="C8">
-        <v>0.5967184270517976</v>
+        <v>0.5953606192665291</v>
       </c>
       <c r="D8">
-        <v>0.07474210756590338</v>
+        <v>0.0765803111558796</v>
       </c>
       <c r="E8">
-        <v>0.05312313180218509</v>
+        <v>0.05078859607954644</v>
       </c>
       <c r="F8">
-        <v>0.3237674137985636</v>
+        <v>0.3117696520354087</v>
       </c>
       <c r="G8">
-        <v>0.2224186326267059</v>
+        <v>0.2029839896284429</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.000710167945132234</v>
+        <v>0.0009015775898308931</v>
       </c>
       <c r="J8">
-        <v>0.2172446902423744</v>
+        <v>0.2402846304115016</v>
       </c>
       <c r="K8">
-        <v>0.2089071936837392</v>
+        <v>0.1968807727131274</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1155573902130467</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0426984183966983</v>
       </c>
       <c r="N8">
-        <v>0.1473239440975078</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4200789453213858</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1496884105374576</v>
       </c>
       <c r="Q8">
-        <v>0.8756400059161109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4212977737597043</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8375110248517643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.393320505699137</v>
+        <v>3.393502273468698</v>
       </c>
       <c r="C9">
-        <v>0.7201610840242267</v>
+        <v>0.7392932160050805</v>
       </c>
       <c r="D9">
-        <v>0.09666091503700613</v>
+        <v>0.1003917617530377</v>
       </c>
       <c r="E9">
-        <v>0.04757063266701145</v>
+        <v>0.04563895544406882</v>
       </c>
       <c r="F9">
-        <v>0.3706355115793087</v>
+        <v>0.3524305389186893</v>
       </c>
       <c r="G9">
-        <v>0.2474426340446598</v>
+        <v>0.2258767099853003</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001898999808934931</v>
+        <v>0.002129896030302447</v>
       </c>
       <c r="J9">
-        <v>0.2163658273296534</v>
+        <v>0.2381953583136465</v>
       </c>
       <c r="K9">
-        <v>0.1837245901492075</v>
+        <v>0.1715873783135304</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1020936336818252</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03737629814246013</v>
       </c>
       <c r="N9">
-        <v>0.1834944283842788</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5607391311526015</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.186759790155449</v>
       </c>
       <c r="Q9">
-        <v>0.9276168424825499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.562558622893448</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8736394989436036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.018280396388604</v>
+        <v>4.014816777164981</v>
       </c>
       <c r="C10">
-        <v>0.8137717015544297</v>
+        <v>0.8464380229879964</v>
       </c>
       <c r="D10">
-        <v>0.1129980517330722</v>
+        <v>0.119020416811864</v>
       </c>
       <c r="E10">
-        <v>0.04386928684155078</v>
+        <v>0.0421967187172001</v>
       </c>
       <c r="F10">
-        <v>0.4080407197932558</v>
+        <v>0.3806112621296052</v>
       </c>
       <c r="G10">
-        <v>0.2684541570136645</v>
+        <v>0.2579727838533614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004258903315288443</v>
+        <v>0.004282077994401057</v>
       </c>
       <c r="J10">
-        <v>0.2174362917502322</v>
+        <v>0.2202781128677174</v>
       </c>
       <c r="K10">
-        <v>0.1675670259950071</v>
+        <v>0.1537777126492479</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09299833964203064</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03570823623886454</v>
       </c>
       <c r="N10">
-        <v>0.2114084213649079</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6644953567166496</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2152545126218826</v>
       </c>
       <c r="Q10">
-        <v>0.9749249431823444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6664989725184256</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8954204029993917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.30250751652369</v>
+        <v>4.296921582584048</v>
       </c>
       <c r="C11">
-        <v>0.8611951108382527</v>
+        <v>0.896199277742852</v>
       </c>
       <c r="D11">
-        <v>0.1208461973486976</v>
+        <v>0.1294440400159971</v>
       </c>
       <c r="E11">
-        <v>0.04224958268969181</v>
+        <v>0.04065980988903384</v>
       </c>
       <c r="F11">
-        <v>0.4239993582405575</v>
+        <v>0.3853264208965967</v>
       </c>
       <c r="G11">
-        <v>0.2769811816136141</v>
+        <v>0.2952066502725756</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.006032461777580878</v>
+        <v>0.00594208094628268</v>
       </c>
       <c r="J11">
-        <v>0.2174569166995681</v>
+        <v>0.1864026402618535</v>
       </c>
       <c r="K11">
-        <v>0.1597887067994588</v>
+        <v>0.1434159553096066</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08832587794198599</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03428629203450484</v>
       </c>
       <c r="N11">
-        <v>0.2247621384063905</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7120257070199187</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2286006484511063</v>
       </c>
       <c r="Q11">
-        <v>0.9932745253930904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7138520944191811</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8816136513100048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.410359134647706</v>
+        <v>4.403901525634353</v>
       </c>
       <c r="C12">
-        <v>0.8768973187746099</v>
+        <v>0.9122327672583026</v>
       </c>
       <c r="D12">
-        <v>0.123623629426362</v>
+        <v>0.1334026158247497</v>
       </c>
       <c r="E12">
-        <v>0.04166327105945444</v>
+        <v>0.04009361569965053</v>
       </c>
       <c r="F12">
-        <v>0.4312232460584866</v>
+        <v>0.3873142569963619</v>
       </c>
       <c r="G12">
-        <v>0.2813145740411258</v>
+        <v>0.3139925671985679</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.006573029523169183</v>
+        <v>0.00637971676599669</v>
       </c>
       <c r="J12">
-        <v>0.2180468612128053</v>
+        <v>0.1728413196330365</v>
       </c>
       <c r="K12">
-        <v>0.1575176464889179</v>
+        <v>0.1398375112020123</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08673202634094324</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03391161438647217</v>
       </c>
       <c r="N12">
-        <v>0.2296861150121998</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7299414629629979</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2334885651791012</v>
       </c>
       <c r="Q12">
-        <v>1.0037821299656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7316671243578199</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8770682219931132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.387162053877603</v>
+        <v>4.380893920651374</v>
       </c>
       <c r="C13">
-        <v>0.8730414209435082</v>
+        <v>0.9083178055068686</v>
       </c>
       <c r="D13">
-        <v>0.1229846186976857</v>
+        <v>0.1324987726776925</v>
       </c>
       <c r="E13">
-        <v>0.04179156750351742</v>
+        <v>0.04021622873877351</v>
       </c>
       <c r="F13">
-        <v>0.4298701602446826</v>
+        <v>0.3871140539523594</v>
       </c>
       <c r="G13">
-        <v>0.2805719470980748</v>
+        <v>0.3099705478509946</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.006414192292060861</v>
+        <v>0.00623432752548414</v>
       </c>
       <c r="J13">
-        <v>0.2180182648298796</v>
+        <v>0.1758376284843095</v>
       </c>
       <c r="K13">
-        <v>0.1581169791595372</v>
+        <v>0.1407053666079126</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08710275055086925</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03403558545802099</v>
       </c>
       <c r="N13">
-        <v>0.228586800515572</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.726060534875117</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2323992212761965</v>
       </c>
       <c r="Q13">
-        <v>1.00212950568789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7278099303993599</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8787130045409981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.311393489536954</v>
+        <v>4.305736677458128</v>
       </c>
       <c r="C14">
-        <v>0.8622855999314538</v>
+        <v>0.8973226520657249</v>
       </c>
       <c r="D14">
-        <v>0.1210573535555994</v>
+        <v>0.1297477717281907</v>
       </c>
       <c r="E14">
-        <v>0.04220220401971619</v>
+        <v>0.04061351231470356</v>
       </c>
       <c r="F14">
-        <v>0.424679635087287</v>
+        <v>0.3855879911950026</v>
       </c>
       <c r="G14">
-        <v>0.2774185509473028</v>
+        <v>0.2967577468277796</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00605853343709839</v>
+        <v>0.005955953601363362</v>
       </c>
       <c r="J14">
-        <v>0.2175472169262704</v>
+        <v>0.1853254599736616</v>
       </c>
       <c r="K14">
-        <v>0.1596486330072473</v>
+        <v>0.143163544593067</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08820690084768312</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03427381389757578</v>
       </c>
       <c r="N14">
-        <v>0.2251506853028644</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.713490082016186</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2289871990632122</v>
       </c>
       <c r="Q14">
-        <v>0.9943978850129724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7153090881151556</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8815266078575803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.264925374372922</v>
+        <v>4.25963669902103</v>
       </c>
       <c r="C15">
-        <v>0.8566329088311306</v>
+        <v>0.8914791055455851</v>
       </c>
       <c r="D15">
-        <v>0.1199574444401179</v>
+        <v>0.128172220103508</v>
       </c>
       <c r="E15">
-        <v>0.04245021019930117</v>
+        <v>0.04085589931450206</v>
       </c>
       <c r="F15">
-        <v>0.4211071798272954</v>
+        <v>0.3841683916487355</v>
       </c>
       <c r="G15">
-        <v>0.2751170505516995</v>
+        <v>0.2887862215863493</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.005930936664389819</v>
+        <v>0.005892865211813536</v>
       </c>
       <c r="J15">
-        <v>0.2170678485918174</v>
+        <v>0.1909123596329678</v>
       </c>
       <c r="K15">
-        <v>0.1603736925813717</v>
+        <v>0.1444674867217763</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0888254285676231</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03433361261217982</v>
       </c>
       <c r="N15">
-        <v>0.2231245142057361</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7058355686868225</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2269699502080869</v>
       </c>
       <c r="Q15">
-        <v>0.9884780005263707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.70769167116012</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8818311299913688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.99916260077481</v>
+        <v>3.995843060040102</v>
       </c>
       <c r="C16">
-        <v>0.8184452746968418</v>
+        <v>0.8510809755009063</v>
       </c>
       <c r="D16">
-        <v>0.1131557650971757</v>
+        <v>0.1190419891872381</v>
       </c>
       <c r="E16">
-        <v>0.04393001080654668</v>
+        <v>0.04227680704053327</v>
       </c>
       <c r="F16">
-        <v>0.4035426167854652</v>
+        <v>0.3769327612231237</v>
       </c>
       <c r="G16">
-        <v>0.2646478369476384</v>
+        <v>0.2528294842166687</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004798985694637103</v>
+        <v>0.004977350579343565</v>
       </c>
       <c r="J16">
-        <v>0.2157488553390863</v>
+        <v>0.2207949343515239</v>
       </c>
       <c r="K16">
-        <v>0.1661649487988033</v>
+        <v>0.1528172297532109</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09274187004275447</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03512559686454431</v>
       </c>
       <c r="N16">
-        <v>0.2111487065359938</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6617471688527203</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2149819089356413</v>
       </c>
       <c r="Q16">
-        <v>0.963307068902779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6637507640250533</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8863347769916743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.836206030144751</v>
+        <v>3.83398089474889</v>
       </c>
       <c r="C17">
-        <v>0.7950961449957958</v>
+        <v>0.8255237710883421</v>
       </c>
       <c r="D17">
-        <v>0.108989954949223</v>
+        <v>0.1137888811832539</v>
       </c>
       <c r="E17">
-        <v>0.04486051114884959</v>
+        <v>0.04316204700881143</v>
       </c>
       <c r="F17">
-        <v>0.3930202246660812</v>
+        <v>0.3711766253547708</v>
       </c>
       <c r="G17">
-        <v>0.2584529754932774</v>
+        <v>0.2365167790569274</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004203963275194234</v>
+        <v>0.004488610554556516</v>
       </c>
       <c r="J17">
-        <v>0.21507400452046</v>
+        <v>0.2349450697785045</v>
       </c>
       <c r="K17">
-        <v>0.1698935750174417</v>
+        <v>0.1576835566141099</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09512595569196769</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03556995065203417</v>
       </c>
       <c r="N17">
-        <v>0.2038820161324537</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6347356898372993</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2076486707951091</v>
       </c>
       <c r="Q17">
-        <v>0.948627171036577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6367702258129881</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8852833632827242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.74266476371281</v>
+        <v>3.741024654213845</v>
       </c>
       <c r="C18">
-        <v>0.7793435001875082</v>
+        <v>0.808142660397948</v>
       </c>
       <c r="D18">
-        <v>0.1063936056143291</v>
+        <v>0.110684452715077</v>
       </c>
       <c r="E18">
-        <v>0.04541837498966905</v>
+        <v>0.04368225726778885</v>
       </c>
       <c r="F18">
-        <v>0.3881078013361901</v>
+        <v>0.3683967648083666</v>
       </c>
       <c r="G18">
-        <v>0.2559571612675811</v>
+        <v>0.2299407634514949</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003661248806909434</v>
+        <v>0.003945501460826506</v>
       </c>
       <c r="J18">
-        <v>0.2152473036775078</v>
+        <v>0.2415830955492311</v>
       </c>
       <c r="K18">
-        <v>0.1726824589686302</v>
+        <v>0.1608891686661416</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09666975439128844</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03601217705721105</v>
       </c>
       <c r="N18">
-        <v>0.1995470738754648</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6191031912683584</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2032577612347097</v>
       </c>
       <c r="Q18">
-        <v>0.9436212309063592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6211370726396552</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8862873399591251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.710869850869926</v>
+        <v>3.709423949632082</v>
       </c>
       <c r="C19">
-        <v>0.7758263328959742</v>
+        <v>0.8040684039867187</v>
       </c>
       <c r="D19">
-        <v>0.105671116517172</v>
+        <v>0.1098094484453043</v>
       </c>
       <c r="E19">
-        <v>0.04559751027984582</v>
+        <v>0.04385383468047555</v>
       </c>
       <c r="F19">
-        <v>0.3856491911273849</v>
+        <v>0.3666094481612703</v>
       </c>
       <c r="G19">
-        <v>0.2543641373310308</v>
+        <v>0.2272977806805301</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003661613113687956</v>
+        <v>0.003984199624871287</v>
       </c>
       <c r="J19">
-        <v>0.2149179042452687</v>
+        <v>0.2430933933549895</v>
       </c>
       <c r="K19">
-        <v>0.1731885932234274</v>
+        <v>0.1615712900263677</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09704515198570807</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03601057797014739</v>
       </c>
       <c r="N19">
-        <v>0.1982256787755006</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6138953132162754</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2019120948382493</v>
       </c>
       <c r="Q19">
-        <v>0.9395278114361503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6159239792678193</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8841116514938108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.853563451740683</v>
+        <v>3.851225747064291</v>
       </c>
       <c r="C20">
-        <v>0.7973940577764154</v>
+        <v>0.8280836365493087</v>
       </c>
       <c r="D20">
-        <v>0.1094172512025153</v>
+        <v>0.1143195596626327</v>
       </c>
       <c r="E20">
-        <v>0.04476170788683487</v>
+        <v>0.04306785778620048</v>
       </c>
       <c r="F20">
-        <v>0.3942134257835264</v>
+        <v>0.371915909812337</v>
       </c>
       <c r="G20">
-        <v>0.2591814381546556</v>
+        <v>0.2381282215717988</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004244941159621263</v>
+        <v>0.004515011740985564</v>
       </c>
       <c r="J20">
-        <v>0.2151811061197577</v>
+        <v>0.2336727524294773</v>
       </c>
       <c r="K20">
-        <v>0.1695355767630371</v>
+        <v>0.1572142701413615</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0948876849636866</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03553913626141103</v>
       </c>
       <c r="N20">
-        <v>0.2046381982892029</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6376014179489715</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2084142692907278</v>
       </c>
       <c r="Q20">
-        <v>0.9504100938936801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.639634980442942</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8857685915867251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.333459264152225</v>
+        <v>4.327547360321489</v>
       </c>
       <c r="C21">
-        <v>0.8680863286394072</v>
+        <v>0.9018291767666256</v>
       </c>
       <c r="D21">
-        <v>0.1218507818620793</v>
+        <v>0.1313175066697028</v>
       </c>
       <c r="E21">
-        <v>0.0420666820007477</v>
+        <v>0.040474113843461</v>
       </c>
       <c r="F21">
-        <v>0.4250280594162987</v>
+        <v>0.3825156601320643</v>
       </c>
       <c r="G21">
-        <v>0.2772405021505833</v>
+        <v>0.3080138238329369</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006397803325816298</v>
+        <v>0.006315699496009408</v>
       </c>
       <c r="J21">
-        <v>0.2171126428737651</v>
+        <v>0.1744388728563706</v>
       </c>
       <c r="K21">
-        <v>0.1585540174781794</v>
+        <v>0.1412615430438269</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08750874211161985</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0336728822569512</v>
       </c>
       <c r="N21">
-        <v>0.2263640218147742</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7173014440434358</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2300921680869834</v>
       </c>
       <c r="Q21">
-        <v>0.9931282085495354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7190230501151973</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.870395430709209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.647685581650535</v>
+        <v>4.639200247344718</v>
       </c>
       <c r="C22">
-        <v>0.9112070657111531</v>
+        <v>0.9463431353364626</v>
       </c>
       <c r="D22">
-        <v>0.1297131364411968</v>
+        <v>0.1424909329210493</v>
       </c>
       <c r="E22">
-        <v>0.0403994550501755</v>
+        <v>0.03886963943034494</v>
       </c>
       <c r="F22">
-        <v>0.4475287830497194</v>
+        <v>0.3903942623017187</v>
       </c>
       <c r="G22">
-        <v>0.2912278391162886</v>
+        <v>0.3632671255451214</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007841643094682382</v>
+        <v>0.007384426090799145</v>
       </c>
       <c r="J22">
-        <v>0.2195579067267062</v>
+        <v>0.1438535690842855</v>
       </c>
       <c r="K22">
-        <v>0.1527902362331357</v>
+        <v>0.131803226056288</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08329311037098908</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03303384647615282</v>
       </c>
       <c r="N22">
-        <v>0.2405792500351964</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7693710880388949</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2442340341791009</v>
       </c>
       <c r="Q22">
-        <v>1.028148105899135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7708081778410687</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8634493555251055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.480165019548963</v>
+        <v>4.473122577030381</v>
       </c>
       <c r="C23">
-        <v>0.884979422829332</v>
+        <v>0.9203446533150839</v>
       </c>
       <c r="D23">
-        <v>0.125239974050146</v>
+        <v>0.1358380440429272</v>
       </c>
       <c r="E23">
-        <v>0.04129971029469548</v>
+        <v>0.03973602593510583</v>
       </c>
       <c r="F23">
-        <v>0.4368495630507923</v>
+        <v>0.3892238792035201</v>
       </c>
       <c r="G23">
-        <v>0.2850145899498528</v>
+        <v>0.3281983027281683</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.006771301075588099</v>
+        <v>0.006466543875281339</v>
       </c>
       <c r="J23">
-        <v>0.2188974666667249</v>
+        <v>0.1643270346913681</v>
       </c>
       <c r="K23">
-        <v>0.1565841956285485</v>
+        <v>0.1378863239034231</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08582782775292408</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03384025078441866</v>
       </c>
       <c r="N23">
-        <v>0.2327181120542008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7414226431600497</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2364893193377213</v>
       </c>
       <c r="Q23">
-        <v>1.013462069818701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7430747903600761</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8759896192540566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.846065595627294</v>
+        <v>3.843770492747751</v>
       </c>
       <c r="C24">
-        <v>0.791383888865056</v>
+        <v>0.8218330134064331</v>
       </c>
       <c r="D24">
-        <v>0.1087952864549209</v>
+        <v>0.1136494684550229</v>
       </c>
       <c r="E24">
-        <v>0.0448368758493134</v>
+        <v>0.04312465176843649</v>
       </c>
       <c r="F24">
-        <v>0.3958986738300254</v>
+        <v>0.3736870123889489</v>
       </c>
       <c r="G24">
-        <v>0.260943136214884</v>
+        <v>0.2393867173454893</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003768892457680195</v>
+        <v>0.003942051310437122</v>
       </c>
       <c r="J24">
-        <v>0.216219854342377</v>
+        <v>0.2352388269595167</v>
       </c>
       <c r="K24">
-        <v>0.1709301018667748</v>
+        <v>0.1584820853178055</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0953794304127733</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03597305741887702</v>
       </c>
       <c r="N24">
-        <v>0.203907738482215</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6360778858315399</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2076850675462083</v>
       </c>
       <c r="Q24">
-        <v>0.9563135223178563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6381163428842882</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8918116598648993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.162893513721315</v>
+        <v>3.164236856594471</v>
       </c>
       <c r="C25">
-        <v>0.6912588392877979</v>
+        <v>0.7053666181263623</v>
       </c>
       <c r="D25">
-        <v>0.09112528408675757</v>
+        <v>0.09413311065748076</v>
       </c>
       <c r="E25">
-        <v>0.0489707752023838</v>
+        <v>0.04695435569524542</v>
       </c>
       <c r="F25">
-        <v>0.3552014985386549</v>
+        <v>0.3398701561268638</v>
       </c>
       <c r="G25">
-        <v>0.2381068544301925</v>
+        <v>0.2142111249066545</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001743119600129184</v>
+        <v>0.002089598915053337</v>
       </c>
       <c r="J25">
-        <v>0.2152007827267965</v>
+        <v>0.2419910623439421</v>
       </c>
       <c r="K25">
-        <v>0.1888561159254039</v>
+        <v>0.1772704810519468</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1051709508251903</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03806896824944683</v>
       </c>
       <c r="N25">
-        <v>0.1738819438070678</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5228640523698118</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1769212442232586</v>
       </c>
       <c r="Q25">
-        <v>0.9051850899568308</v>
+        <v>0.5245651873362291</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8591389361600932</v>
       </c>
     </row>
   </sheetData>
